--- a/public/data/soil/soil_table_tanzania.xlsx
+++ b/public/data/soil/soil_table_tanzania.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7650.9</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57119.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.757</v>
+        <v>11.697</v>
       </c>
       <c r="K2" t="n">
-        <v>120.132</v>
+        <v>126.873</v>
       </c>
     </row>
     <row r="3">
@@ -1261,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1055</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15845.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>24.499</v>
+        <v>25.801</v>
       </c>
     </row>
     <row r="4">
@@ -1290,28 +1290,28 @@
         <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>2716.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>9265.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>102164.4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.611</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7.487</v>
+        <v>15.558</v>
       </c>
       <c r="K4" t="n">
-        <v>188.528</v>
+        <v>187.27</v>
       </c>
     </row>
     <row r="5">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2328.6</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>366.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>324.5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>187107.8</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>126.072</v>
+        <v>125.755</v>
       </c>
     </row>
     <row r="8">
@@ -1430,28 +1430,28 @@
         <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>129.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6499.8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>49165.6</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>24.448</v>
+        <v>43.554</v>
       </c>
       <c r="K8" t="n">
-        <v>112.132</v>
+        <v>109.224</v>
       </c>
     </row>
     <row r="9">
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3096.5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>205502.2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.054</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>156.821</v>
+        <v>196.068</v>
       </c>
     </row>
     <row r="10">
@@ -1500,28 +1500,28 @@
         <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>264.8</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>565.9</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23373.6</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>295333.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.701</v>
+        <v>7.653</v>
       </c>
       <c r="K10" t="n">
-        <v>158.533</v>
+        <v>188.625</v>
       </c>
     </row>
     <row r="11">
@@ -1541,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>87.8</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>16498</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>21.176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>22657.2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.301</v>
+        <v>22.195</v>
       </c>
     </row>
     <row r="13">
@@ -1611,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4332.4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>23169.7</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5.488</v>
+        <v>4.315</v>
       </c>
       <c r="K13" t="n">
-        <v>35.025</v>
+        <v>38.439</v>
       </c>
     </row>
     <row r="14">
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7529.9</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>200080</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7.609</v>
+        <v>4.116</v>
       </c>
       <c r="K14" t="n">
-        <v>207.059</v>
+        <v>214.012</v>
       </c>
     </row>
     <row r="15">
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>15626.6</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>296295.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>21.734</v>
+        <v>2.73</v>
       </c>
       <c r="K15" t="n">
-        <v>290.615</v>
+        <v>312.993</v>
       </c>
     </row>
     <row r="16">
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2848.9</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>269795.1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.146</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>231.148</v>
+        <v>241.06</v>
       </c>
     </row>
     <row r="17">
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>10298.7</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>114248.6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.132</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>168.921</v>
+        <v>200.217</v>
       </c>
     </row>
     <row r="18">
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>36930.9</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>173061</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1798,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27</v>
+        <v>71.655</v>
       </c>
       <c r="K18" t="n">
-        <v>186.071</v>
+        <v>176.957</v>
       </c>
     </row>
     <row r="19">
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1240.5</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>197454.1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>273.624</v>
+        <v>262.165</v>
       </c>
     </row>
     <row r="20">
@@ -1850,28 +1850,28 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>454.2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>22320</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>229574.8</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.867</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>19.962</v>
+        <v>16.288</v>
       </c>
       <c r="K20" t="n">
-        <v>256.007</v>
+        <v>279.798</v>
       </c>
     </row>
     <row r="21">
@@ -1885,28 +1885,28 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>69016.8</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>383.1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>90898.5</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>59766.2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>44.97</v>
+        <v>29.607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.685</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>87.248</v>
+        <v>122.188</v>
       </c>
       <c r="K21" t="n">
-        <v>83.621</v>
+        <v>61.922</v>
       </c>
     </row>
     <row r="22">
@@ -1920,28 +1920,28 @@
         <v>53</v>
       </c>
       <c r="D22" t="n">
-        <v>15423.4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>101841.9</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28369</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.443</v>
+        <v>12.05</v>
       </c>
       <c r="I22" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>248.421</v>
+        <v>289.949</v>
       </c>
       <c r="K22" t="n">
-        <v>77.223</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="23">
@@ -1955,28 +1955,28 @@
         <v>51</v>
       </c>
       <c r="D23" t="n">
-        <v>58709</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>4296.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>136838.9</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>51481.8</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>151.153</v>
+        <v>170.449</v>
       </c>
       <c r="I23" t="n">
-        <v>10.245</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>442.457</v>
+        <v>478.638</v>
       </c>
       <c r="K23" t="n">
-        <v>113.694</v>
+        <v>88.554</v>
       </c>
     </row>
     <row r="24">
@@ -1990,28 +1990,28 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>1355.8</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>5990.2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2955.7</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.936</v>
+        <v>5.755</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.994</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2025,28 +2025,28 @@
         <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>46285.9</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1878.5</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>25379.5</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>53756.2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.713</v>
+        <v>85.656</v>
       </c>
       <c r="I25" t="n">
-        <v>2.419</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.332</v>
+        <v>41.504</v>
       </c>
       <c r="K25" t="n">
-        <v>98.18</v>
+        <v>105.228</v>
       </c>
     </row>
     <row r="26">
@@ -2060,28 +2060,28 @@
         <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>7079</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2275.2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8888</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>74618.1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>13.232</v>
+        <v>7.612</v>
       </c>
       <c r="I26" t="n">
-        <v>3.157</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19.518</v>
+        <v>8.752</v>
       </c>
       <c r="K26" t="n">
-        <v>142.24</v>
+        <v>178.58</v>
       </c>
     </row>
     <row r="27">
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>60863.5</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>341580.3</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2113,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>32.265</v>
+        <v>23.775</v>
       </c>
       <c r="K27" t="n">
-        <v>176.525</v>
+        <v>182.315</v>
       </c>
     </row>
     <row r="28">
@@ -2136,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3370.5</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>16065.9</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>5.824</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>21.616</v>
+        <v>41.531</v>
       </c>
     </row>
     <row r="29">
@@ -2165,28 +2165,28 @@
         <v>60</v>
       </c>
       <c r="D29" t="n">
-        <v>33374</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>416.1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>55711.3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>148798.9</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>24.683</v>
+        <v>33.8</v>
       </c>
       <c r="I29" t="n">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>33.927</v>
+        <v>46.954</v>
       </c>
       <c r="K29" t="n">
-        <v>109.205</v>
+        <v>109.369</v>
       </c>
     </row>
     <row r="30">
@@ -2200,28 +2200,28 @@
         <v>61</v>
       </c>
       <c r="D30" t="n">
-        <v>807.7</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>12100.1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>11914.9</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.521</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.867</v>
+        <v>27.417</v>
       </c>
       <c r="K30" t="n">
-        <v>12.397</v>
+        <v>3.693</v>
       </c>
     </row>
     <row r="31">
@@ -2235,28 +2235,28 @@
         <v>62</v>
       </c>
       <c r="D31" t="n">
-        <v>51145</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4024.5</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>84711.8</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>156612.8</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.083</v>
+        <v>71.918</v>
       </c>
       <c r="I31" t="n">
-        <v>4.166</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>54.824</v>
+        <v>72.223</v>
       </c>
       <c r="K31" t="n">
-        <v>117.443</v>
+        <v>90.489</v>
       </c>
     </row>
     <row r="32">
@@ -2270,28 +2270,28 @@
         <v>64</v>
       </c>
       <c r="D32" t="n">
-        <v>33312</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>164544.7</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6374.8</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>50.04</v>
+        <v>56.365</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>228.751</v>
+        <v>234.842</v>
       </c>
       <c r="K32" t="n">
-        <v>12.102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2305,28 +2305,28 @@
         <v>65</v>
       </c>
       <c r="D33" t="n">
-        <v>65399.9</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>30982</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1946.9</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>190.644</v>
+        <v>193.486</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>63.296</v>
+        <v>61.709</v>
       </c>
       <c r="K33" t="n">
-        <v>3.442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2340,19 +2340,19 @@
         <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>6533.7</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>376.1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>13.858</v>
+        <v>21.33</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2375,28 +2375,28 @@
         <v>67</v>
       </c>
       <c r="D35" t="n">
-        <v>17310.8</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>136582.3</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>18253.2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>46.41</v>
+        <v>21.952</v>
       </c>
       <c r="I35" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>224.124</v>
+        <v>279.902</v>
       </c>
       <c r="K35" t="n">
-        <v>24.512</v>
+        <v>7.329</v>
       </c>
     </row>
     <row r="36">
@@ -2410,28 +2410,28 @@
         <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>29124.4</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1231.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>73217.4</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2665.3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>63.54</v>
+        <v>48.443</v>
       </c>
       <c r="I36" t="n">
-        <v>3.533</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>228.077</v>
+        <v>258.302</v>
       </c>
       <c r="K36" t="n">
-        <v>7.681</v>
+        <v>4.835</v>
       </c>
     </row>
     <row r="37">
@@ -2445,25 +2445,25 @@
         <v>54</v>
       </c>
       <c r="D37" t="n">
-        <v>6550.8</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2242.5</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.536</v>
+        <v>17.184</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.451</v>
+        <v>27.488</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2480,28 +2480,28 @@
         <v>69</v>
       </c>
       <c r="D38" t="n">
-        <v>33418.6</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>77.9</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>73494.4</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>8505.3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>63.327</v>
+        <v>80.886</v>
       </c>
       <c r="I38" t="n">
-        <v>0.131</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>99.442</v>
+        <v>85.571</v>
       </c>
       <c r="K38" t="n">
-        <v>9.298</v>
+        <v>7.255</v>
       </c>
     </row>
     <row r="39">
@@ -2515,28 +2515,28 @@
         <v>70</v>
       </c>
       <c r="D39" t="n">
-        <v>53178.7</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>102407.3</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1243.1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>185.942</v>
+        <v>205.092</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>234.046</v>
+        <v>243.26</v>
       </c>
       <c r="K39" t="n">
-        <v>1.519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2550,28 +2550,28 @@
         <v>71</v>
       </c>
       <c r="D40" t="n">
-        <v>683.6</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>305.2</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>152395.5</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1154.3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.634</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>292.051</v>
+        <v>303.269</v>
       </c>
       <c r="K40" t="n">
-        <v>1.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2585,25 +2585,25 @@
         <v>73</v>
       </c>
       <c r="D41" t="n">
-        <v>833.9</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3158</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.916</v>
+        <v>9.9</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>17.764</v>
+        <v>41.741</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2620,28 +2620,28 @@
         <v>74</v>
       </c>
       <c r="D42" t="n">
-        <v>1940.3</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2786.9</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>423.6</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>7.29</v>
+        <v>9.505</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.837</v>
+        <v>34.813</v>
       </c>
       <c r="K42" t="n">
-        <v>0.169</v>
+        <v>13.498</v>
       </c>
     </row>
     <row r="43">
@@ -2655,28 +2655,28 @@
         <v>76</v>
       </c>
       <c r="D43" t="n">
-        <v>199.2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>4307.9</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2152.5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.515</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.874</v>
+        <v>48.903</v>
       </c>
       <c r="K43" t="n">
-        <v>7.226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2690,28 +2690,28 @@
         <v>77</v>
       </c>
       <c r="D44" t="n">
-        <v>1582.8</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5719</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1090.5</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.894</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>19.627</v>
+        <v>13.089</v>
       </c>
       <c r="K44" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>176.9</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>201.6</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>922.9</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>533.3</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.117</v>
+        <v>9.591</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2795,28 +2795,28 @@
         <v>81</v>
       </c>
       <c r="D47" t="n">
-        <v>5846.3</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>34.2</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>264595.2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>227439.3</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.569</v>
+        <v>1.149</v>
       </c>
       <c r="I47" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>106.914</v>
+        <v>116.911</v>
       </c>
       <c r="K47" t="n">
-        <v>184.497</v>
+        <v>183.392</v>
       </c>
     </row>
     <row r="48">
@@ -2830,28 +2830,28 @@
         <v>82</v>
       </c>
       <c r="D48" t="n">
-        <v>33164</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>272525</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>20997.6</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>13.765</v>
+        <v>7.709</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>156.917</v>
+        <v>182.266</v>
       </c>
       <c r="K48" t="n">
-        <v>22.7</v>
+        <v>20.985</v>
       </c>
     </row>
     <row r="49">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>3258.4</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>15585.9</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>6.479</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>27.803</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="50">
@@ -2900,28 +2900,28 @@
         <v>85</v>
       </c>
       <c r="D50" t="n">
-        <v>9600.1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>73830.5</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1886.9</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>29.683</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>207.805</v>
+        <v>214.064</v>
       </c>
       <c r="K50" t="n">
-        <v>6.762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2935,28 +2935,28 @@
         <v>86</v>
       </c>
       <c r="D51" t="n">
-        <v>4361.9</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>73832.1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>7044.4</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>5.157</v>
+        <v>3.423</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>143.275</v>
+        <v>195.743</v>
       </c>
       <c r="K51" t="n">
-        <v>21.062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2970,28 +2970,28 @@
         <v>87</v>
       </c>
       <c r="D52" t="n">
-        <v>25771.5</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>182898</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>8061.1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>36.305</v>
+        <v>17.626</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>329.371</v>
+        <v>366.349</v>
       </c>
       <c r="K52" t="n">
-        <v>7.868</v>
+        <v>5.019</v>
       </c>
     </row>
     <row r="53">
@@ -3005,28 +3005,28 @@
         <v>88</v>
       </c>
       <c r="D53" t="n">
-        <v>938.9</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>48653.1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1357.3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2.915</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>124.571</v>
+        <v>110.67</v>
       </c>
       <c r="K53" t="n">
-        <v>2.589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3040,28 +3040,28 @@
         <v>89</v>
       </c>
       <c r="D54" t="n">
-        <v>68025.9</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>244.1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>131070.2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>55293.9</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>27.117</v>
+        <v>20.24</v>
       </c>
       <c r="I54" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>179.681</v>
+        <v>208.778</v>
       </c>
       <c r="K54" t="n">
-        <v>32.494</v>
+        <v>7.625</v>
       </c>
     </row>
     <row r="55">
@@ -3075,28 +3075,28 @@
         <v>90</v>
       </c>
       <c r="D55" t="n">
-        <v>11311.9</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>37076.5</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2430.1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>51.537</v>
+        <v>41.436</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>121.686</v>
+        <v>158.007</v>
       </c>
       <c r="K55" t="n">
-        <v>5.176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3110,28 +3110,28 @@
         <v>91</v>
       </c>
       <c r="D56" t="n">
-        <v>247.7</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1087.5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>4278.2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.789</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>2.394</v>
+        <v>13.612</v>
       </c>
     </row>
     <row r="57">
@@ -3145,28 +3145,28 @@
         <v>80</v>
       </c>
       <c r="D57" t="n">
-        <v>1080.2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>6074</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1467.9</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.619</v>
+        <v>28.841</v>
       </c>
       <c r="K57" t="n">
-        <v>0.858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3180,28 +3180,28 @@
         <v>92</v>
       </c>
       <c r="D58" t="n">
-        <v>12741.5</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>199414.5</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>25243.8</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>9.669</v>
+        <v>1.656</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>292.062</v>
+        <v>298.212</v>
       </c>
       <c r="K58" t="n">
-        <v>53.522</v>
+        <v>46.103</v>
       </c>
     </row>
     <row r="59">
@@ -3221,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2001.8</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>33783.8</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3233,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>9.826</v>
+        <v>9.879</v>
       </c>
       <c r="K59" t="n">
-        <v>83.65</v>
+        <v>86.814</v>
       </c>
     </row>
     <row r="60">
@@ -3250,28 +3250,28 @@
         <v>95</v>
       </c>
       <c r="D60" t="n">
-        <v>3407.6</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>2632.5</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>3172.3</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>46719.8</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>12.058</v>
+        <v>14.303</v>
       </c>
       <c r="I60" t="n">
-        <v>3.105</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>10.449</v>
+        <v>25.143</v>
       </c>
       <c r="K60" t="n">
-        <v>114.003</v>
+        <v>109.078</v>
       </c>
     </row>
     <row r="61">
@@ -3291,10 +3291,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>57.4</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>3338.9</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3320,28 +3320,28 @@
         <v>97</v>
       </c>
       <c r="D62" t="n">
-        <v>2195.6</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>7181.5</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>44712.9</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>10.686</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>31.46</v>
+        <v>28.164</v>
       </c>
       <c r="K62" t="n">
-        <v>70.179</v>
+        <v>94.997</v>
       </c>
     </row>
     <row r="63">
@@ -3355,28 +3355,28 @@
         <v>98</v>
       </c>
       <c r="D63" t="n">
-        <v>6156</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>11481.8</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>15823.3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>22.566</v>
+        <v>18.434</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>36.792</v>
+        <v>37.494</v>
       </c>
       <c r="K63" t="n">
-        <v>46.522</v>
+        <v>75.261</v>
       </c>
     </row>
     <row r="64">
@@ -3390,28 +3390,28 @@
         <v>99</v>
       </c>
       <c r="D64" t="n">
-        <v>2869.5</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>11722.7</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>130126.5</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>16.847</v>
+        <v>20.69</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>55.598</v>
+        <v>52.326</v>
       </c>
       <c r="K64" t="n">
-        <v>169.088</v>
+        <v>181.086</v>
       </c>
     </row>
     <row r="65">
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>3098.4</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>34287.6</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3443,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>5.148</v>
+        <v>3.182</v>
       </c>
       <c r="K65" t="n">
-        <v>76.392</v>
+        <v>93.18</v>
       </c>
     </row>
     <row r="66">
@@ -3460,28 +3460,28 @@
         <v>102</v>
       </c>
       <c r="D66" t="n">
-        <v>836.5</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2608.1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1207.6</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3.97</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>11.544</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>6.247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3495,25 +3495,25 @@
         <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>2218.8</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>952.6</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>12.918</v>
+        <v>31.942</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>7.219</v>
+        <v>40.697</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3530,28 +3530,28 @@
         <v>105</v>
       </c>
       <c r="D68" t="n">
-        <v>3430</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>56.6</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>9909.6</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2713.8</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>13.141</v>
+        <v>11.665</v>
       </c>
       <c r="I68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>27.899</v>
+        <v>33.782</v>
       </c>
       <c r="K68" t="n">
-        <v>8.621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3565,28 +3565,28 @@
         <v>106</v>
       </c>
       <c r="D69" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>4831.4</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>4159.2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>5.896</v>
+        <v>24.623</v>
       </c>
       <c r="K69" t="n">
-        <v>8.183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3600,28 +3600,28 @@
         <v>108</v>
       </c>
       <c r="D70" t="n">
-        <v>874.8</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>292.4</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>26177</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>265290.9</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.454</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>9.251</v>
+        <v>6.479</v>
       </c>
       <c r="K70" t="n">
-        <v>142.203</v>
+        <v>167.625</v>
       </c>
     </row>
     <row r="71">
@@ -3635,28 +3635,28 @@
         <v>109</v>
       </c>
       <c r="D71" t="n">
-        <v>1549.4</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>95.9</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>57311.2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>120504.7</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.718</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>46.149</v>
+        <v>46.251</v>
       </c>
       <c r="K71" t="n">
-        <v>103.833</v>
+        <v>113.226</v>
       </c>
     </row>
     <row r="72">
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>5252.6</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>25534.6</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.804</v>
+        <v>4.815</v>
       </c>
       <c r="K72" t="n">
-        <v>30.439</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="73">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>88408.8</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>537544.2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>6.906</v>
+        <v>5.436</v>
       </c>
       <c r="K73" t="n">
-        <v>71.134</v>
+        <v>78.275</v>
       </c>
     </row>
     <row r="74">
@@ -3743,25 +3743,25 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>167691.6</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.387</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>140.501</v>
+        <v>139.913</v>
       </c>
     </row>
     <row r="75">
@@ -3775,28 +3775,28 @@
         <v>113</v>
       </c>
       <c r="D75" t="n">
-        <v>333.9</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>4800.1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>80202.3</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3.431</v>
+        <v>4.464</v>
       </c>
       <c r="K75" t="n">
-        <v>102.81</v>
+        <v>101.154</v>
       </c>
     </row>
     <row r="76">
@@ -3810,28 +3810,28 @@
         <v>115</v>
       </c>
       <c r="D76" t="n">
-        <v>1669.5</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>14808.2</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>158600.8</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>5.392</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>30.945</v>
+        <v>23.93</v>
       </c>
       <c r="K76" t="n">
-        <v>276.808</v>
+        <v>279.595</v>
       </c>
     </row>
     <row r="77">
@@ -3851,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2514.4</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>20904.5</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>9.026</v>
+        <v>14.438</v>
       </c>
       <c r="K77" t="n">
-        <v>44.574</v>
+        <v>47.344</v>
       </c>
     </row>
     <row r="78">
@@ -3883,25 +3883,25 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>368.6</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2335.3</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>195712.6</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.167</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>267.739</v>
+        <v>272.659</v>
       </c>
     </row>
     <row r="79">
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>113.6</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>306220.4</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>259.176</v>
+        <v>264.777</v>
       </c>
     </row>
     <row r="80">
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>380.8</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3985,28 +3985,28 @@
         <v>119</v>
       </c>
       <c r="D81" t="n">
-        <v>9990.6</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>8664.9</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>144835.3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>23.531</v>
+        <v>12.019</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>22.908</v>
+        <v>45.134</v>
       </c>
       <c r="K81" t="n">
-        <v>262.13</v>
+        <v>254.911</v>
       </c>
     </row>
     <row r="82">
@@ -4023,25 +4023,25 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>123.3</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>136.1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>425452.5</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.322</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.088</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>155.113</v>
+        <v>162.129</v>
       </c>
     </row>
     <row r="83">
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>59291.8</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>99245.8</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>119.259</v>
+        <v>140.573</v>
       </c>
       <c r="K83" t="n">
-        <v>143.226</v>
+        <v>151.807</v>
       </c>
     </row>
     <row r="84">
@@ -4093,25 +4093,25 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>60470.9</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>66242.9</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>119.764</v>
+        <v>127.023</v>
       </c>
       <c r="K84" t="n">
-        <v>115.662</v>
+        <v>126.452</v>
       </c>
     </row>
     <row r="85">
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>3942.9</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>9584</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.499</v>
+        <v>56.683</v>
       </c>
       <c r="K85" t="n">
-        <v>5.901</v>
+        <v>34.706</v>
       </c>
     </row>
     <row r="86">
@@ -4166,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>22185.9</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>37210.1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4178,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>80.47</v>
+        <v>95.006</v>
       </c>
       <c r="K86" t="n">
-        <v>81.563</v>
+        <v>46.746</v>
       </c>
     </row>
     <row r="87">
@@ -4201,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>3296.6</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>383.8</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>4.974</v>
+        <v>18.793</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4230,16 +4230,16 @@
         <v>126</v>
       </c>
       <c r="D88" t="n">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>85938.7</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>33378.2</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>169.058</v>
+        <v>170.393</v>
       </c>
       <c r="K88" t="n">
-        <v>75.749</v>
+        <v>40.324</v>
       </c>
     </row>
     <row r="89">
@@ -4271,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>100047.3</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>230694.2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4283,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>136.049</v>
+        <v>146.671</v>
       </c>
       <c r="K89" t="n">
-        <v>125.234</v>
+        <v>112.205</v>
       </c>
     </row>
     <row r="90">
@@ -4300,28 +4300,28 @@
         <v>128</v>
       </c>
       <c r="D90" t="n">
-        <v>8692.9</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>83639.5</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>13016.8</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>28.135</v>
+        <v>43.642</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>191.584</v>
+        <v>200.094</v>
       </c>
       <c r="K90" t="n">
-        <v>18.847</v>
+        <v>26.016</v>
       </c>
     </row>
     <row r="91">
@@ -4335,28 +4335,28 @@
         <v>130</v>
       </c>
       <c r="D91" t="n">
-        <v>5637.8</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>168530.5</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>204364</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.577</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>37.501</v>
+        <v>46.109</v>
       </c>
       <c r="K91" t="n">
-        <v>119.511</v>
+        <v>115.939</v>
       </c>
     </row>
     <row r="92">
@@ -4370,28 +4370,28 @@
         <v>131</v>
       </c>
       <c r="D92" t="n">
-        <v>2452.9</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>34181.9</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>3954.2</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>9.498</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>115.409</v>
+        <v>130.041</v>
       </c>
       <c r="K92" t="n">
-        <v>15.604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4405,28 +4405,28 @@
         <v>132</v>
       </c>
       <c r="D93" t="n">
-        <v>213.8</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>20325.4</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>298398.5</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.478</v>
+        <v>1.536</v>
       </c>
       <c r="K93" t="n">
-        <v>234.643</v>
+        <v>229.315</v>
       </c>
     </row>
     <row r="94">
@@ -4440,28 +4440,28 @@
         <v>133</v>
       </c>
       <c r="D94" t="n">
-        <v>4527.5</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>76235.9</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>62650</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>9.295</v>
+        <v>10.49</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>142.303</v>
+        <v>150.87</v>
       </c>
       <c r="K94" t="n">
-        <v>71.807</v>
+        <v>88.236</v>
       </c>
     </row>
     <row r="95">
@@ -4475,28 +4475,28 @@
         <v>134</v>
       </c>
       <c r="D95" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>6096.8</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>11769.8</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>8.105</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>11.974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4510,28 +4510,28 @@
         <v>135</v>
       </c>
       <c r="D96" t="n">
-        <v>20149.2</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>72867</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>431.6</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>44.332</v>
+        <v>57.618</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>181.554</v>
+        <v>214.786</v>
       </c>
       <c r="K96" t="n">
-        <v>0.696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4545,25 +4545,25 @@
         <v>137</v>
       </c>
       <c r="D97" t="n">
-        <v>452.5</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>3563.8</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>542.1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1.202</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>8.138</v>
+        <v>24.602</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4580,16 +4580,16 @@
         <v>138</v>
       </c>
       <c r="D98" t="n">
-        <v>34.7</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1102.9</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1962.2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4598,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.497</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>4.407</v>
+        <v>17.145</v>
       </c>
     </row>
     <row r="99">
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>206.7</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4650,28 +4650,28 @@
         <v>141</v>
       </c>
       <c r="D100" t="n">
-        <v>1053</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>32.7</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1735.8</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>81830.6</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>4.379</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.088</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>6.798</v>
+        <v>17.2</v>
       </c>
       <c r="K100" t="n">
-        <v>158.282</v>
+        <v>159.463</v>
       </c>
     </row>
     <row r="101">
@@ -4685,28 +4685,28 @@
         <v>142</v>
       </c>
       <c r="D101" t="n">
-        <v>17904.1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>187.7</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>113950.1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>191006.5</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>7.601</v>
+        <v>3.013</v>
       </c>
       <c r="I101" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>132.157</v>
+        <v>177.043</v>
       </c>
       <c r="K101" t="n">
-        <v>169.23</v>
+        <v>130.687</v>
       </c>
     </row>
     <row r="102">
@@ -4720,28 +4720,28 @@
         <v>143</v>
       </c>
       <c r="D102" t="n">
-        <v>3826.8</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>59475.8</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>222599.8</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>2.807</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>52.903</v>
+        <v>54.921</v>
       </c>
       <c r="K102" t="n">
-        <v>329.067</v>
+        <v>343.379</v>
       </c>
     </row>
     <row r="103">
@@ -4755,28 +4755,28 @@
         <v>144</v>
       </c>
       <c r="D103" t="n">
-        <v>2093.8</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>28247.6</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>238097.9</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>5.546</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>52.589</v>
+        <v>76.303</v>
       </c>
       <c r="K103" t="n">
-        <v>183.743</v>
+        <v>182.833</v>
       </c>
     </row>
     <row r="104">
@@ -4796,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>2137.4</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>14084.5</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4808,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.535</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>29.209</v>
+        <v>23.129</v>
       </c>
     </row>
     <row r="105">
@@ -4825,28 +4825,28 @@
         <v>146</v>
       </c>
       <c r="D105" t="n">
-        <v>2461.2</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>134.2</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>8548.2</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>188492.5</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>5.038</v>
+        <v>6.057</v>
       </c>
       <c r="I105" t="n">
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>19.107</v>
+        <v>22.971</v>
       </c>
       <c r="K105" t="n">
-        <v>248.508</v>
+        <v>243.096</v>
       </c>
     </row>
     <row r="106">
@@ -4860,28 +4860,28 @@
         <v>147</v>
       </c>
       <c r="D106" t="n">
-        <v>27520.7</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>185997.9</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>240502.3</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>6.483</v>
+        <v>3.848</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>132.393</v>
+        <v>160.184</v>
       </c>
       <c r="K106" t="n">
-        <v>130.155</v>
+        <v>116.196</v>
       </c>
     </row>
     <row r="107">
@@ -4901,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>4510.8</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>137614.9</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4913,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>5.887</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>203.993</v>
+        <v>202.3</v>
       </c>
     </row>
     <row r="108">
@@ -4936,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1245.4</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>33815.2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4948,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.239</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>60.417</v>
+        <v>62.752</v>
       </c>
     </row>
     <row r="109">
@@ -4965,28 +4965,28 @@
         <v>151</v>
       </c>
       <c r="D109" t="n">
-        <v>3631.2</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>658.3</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>56920.3</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>70514</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>7.043</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1.232</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>71.639</v>
+        <v>73.4</v>
       </c>
       <c r="K109" t="n">
-        <v>96.316</v>
+        <v>107.864</v>
       </c>
     </row>
     <row r="110">
@@ -5006,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1183.1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>6194.2</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -5018,10 +5018,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>12.164</v>
+        <v>4.957</v>
       </c>
     </row>
     <row r="111">
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>133176.5</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>130.704</v>
+        <v>143.78</v>
       </c>
     </row>
     <row r="112">
@@ -5076,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>37544.5</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>56931.7</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5088,10 +5088,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>67.185</v>
+        <v>78.952</v>
       </c>
       <c r="K112" t="n">
-        <v>93.706</v>
+        <v>78.78</v>
       </c>
     </row>
     <row r="113">
@@ -5105,28 +5105,28 @@
         <v>155</v>
       </c>
       <c r="D113" t="n">
-        <v>6268.5</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>63568</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>26474.3</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>10.147</v>
+        <v>8.453</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>124.85</v>
+        <v>150.01</v>
       </c>
       <c r="K113" t="n">
-        <v>43.807</v>
+        <v>32.657</v>
       </c>
     </row>
     <row r="114">
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>11387.3</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>2756.5</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5158,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>25.769</v>
+        <v>38.078</v>
       </c>
       <c r="K114" t="n">
-        <v>3.319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5181,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>2773.6</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>204407.7</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5193,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>6.052</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>301.397</v>
+        <v>330.963</v>
       </c>
     </row>
     <row r="116">
@@ -5210,28 +5210,28 @@
         <v>54</v>
       </c>
       <c r="D116" t="n">
-        <v>2358.8</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>15794.2</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>12803</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.746</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>13.057</v>
+        <v>108.565</v>
       </c>
       <c r="K116" t="n">
-        <v>4.979</v>
+        <v>39.496</v>
       </c>
     </row>
     <row r="117">
@@ -5251,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>17007.7</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>83464.7</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5263,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>33.876</v>
+        <v>49.015</v>
       </c>
       <c r="K117" t="n">
-        <v>158.762</v>
+        <v>173.478</v>
       </c>
     </row>
     <row r="118">
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>19239.6</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>135215.9</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5298,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>49.91</v>
+        <v>18.515</v>
       </c>
       <c r="K118" t="n">
-        <v>296.799</v>
+        <v>331.043</v>
       </c>
     </row>
     <row r="119">
@@ -5321,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>8748.2</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>2146.1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>13.409</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>3.339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5350,28 +5350,28 @@
         <v>162</v>
       </c>
       <c r="D120" t="n">
-        <v>7652.1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>315.7</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>105700</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>62348.8</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>38.207</v>
+        <v>37.025</v>
       </c>
       <c r="I120" t="n">
-        <v>0.809</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>328.085</v>
+        <v>354.872</v>
       </c>
       <c r="K120" t="n">
-        <v>152.714</v>
+        <v>106.463</v>
       </c>
     </row>
     <row r="121">
@@ -5385,28 +5385,28 @@
         <v>163</v>
       </c>
       <c r="D121" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>30230.5</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>655.8</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>2.671</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>82.856</v>
+        <v>55.829</v>
       </c>
       <c r="K121" t="n">
-        <v>0.939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5420,28 +5420,28 @@
         <v>165</v>
       </c>
       <c r="D122" t="n">
-        <v>30833.8</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>32891.5</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>25341.5</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>84642.8</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>19.086</v>
+        <v>18.803</v>
       </c>
       <c r="I122" t="n">
-        <v>20.064</v>
+        <v>26.429</v>
       </c>
       <c r="J122" t="n">
-        <v>11.24</v>
+        <v>15.228</v>
       </c>
       <c r="K122" t="n">
-        <v>54.542</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="123">
@@ -5455,28 +5455,28 @@
         <v>166</v>
       </c>
       <c r="D123" t="n">
-        <v>658.7</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>801.3</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>922.4</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>45949.1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.371</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.497</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>40.912</v>
+        <v>48.886</v>
       </c>
     </row>
     <row r="124">
@@ -5490,28 +5490,28 @@
         <v>167</v>
       </c>
       <c r="D124" t="n">
-        <v>34605.2</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>24433.1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>33678.1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>65187.5</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>25.226</v>
+        <v>28.486</v>
       </c>
       <c r="I124" t="n">
-        <v>10.892</v>
+        <v>19.072</v>
       </c>
       <c r="J124" t="n">
-        <v>11.853</v>
+        <v>17.736</v>
       </c>
       <c r="K124" t="n">
-        <v>25.466</v>
+        <v>24.572</v>
       </c>
     </row>
     <row r="125">
@@ -5525,28 +5525,28 @@
         <v>168</v>
       </c>
       <c r="D125" t="n">
-        <v>27737.2</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>12089.6</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>16756.7</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>70737.4</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>17.465</v>
+        <v>16.896</v>
       </c>
       <c r="I125" t="n">
-        <v>7.321</v>
+        <v>6.964</v>
       </c>
       <c r="J125" t="n">
-        <v>5.991</v>
+        <v>3.816</v>
       </c>
       <c r="K125" t="n">
-        <v>45.069</v>
+        <v>45.642</v>
       </c>
     </row>
     <row r="126">
@@ -5560,28 +5560,28 @@
         <v>169</v>
       </c>
       <c r="D126" t="n">
-        <v>47158.3</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>40289.4</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>2719.9</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>81585</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>20.073</v>
+        <v>25.125</v>
       </c>
       <c r="I126" t="n">
-        <v>18.321</v>
+        <v>22.863</v>
       </c>
       <c r="J126" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>46.348</v>
+        <v>33.519</v>
       </c>
     </row>
     <row r="127">
@@ -5595,28 +5595,28 @@
         <v>170</v>
       </c>
       <c r="D127" t="n">
-        <v>1545.6</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>4977.6</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1709.4</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>170910.9</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1.589</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1.902</v>
+        <v>1.532</v>
       </c>
       <c r="J127" t="n">
-        <v>0.627</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>138.243</v>
+        <v>142.203</v>
       </c>
     </row>
     <row r="128">
@@ -5636,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>11756.3</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>190726.4</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5648,10 +5648,10 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>9.504</v>
+        <v>2.795</v>
       </c>
       <c r="K128" t="n">
-        <v>251.91</v>
+        <v>281.9</v>
       </c>
     </row>
     <row r="129">
@@ -5671,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2885.1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>40356</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5683,10 +5683,10 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.11</v>
+        <v>0.638</v>
       </c>
       <c r="K129" t="n">
-        <v>62.203</v>
+        <v>53.046</v>
       </c>
     </row>
     <row r="130">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>25852.9</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>52.219</v>
+        <v>42.484</v>
       </c>
     </row>
     <row r="131">
@@ -5735,28 +5735,28 @@
         <v>175</v>
       </c>
       <c r="D131" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>67.6</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>4655.9</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>112941.3</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.452</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>84.662</v>
+        <v>98.087</v>
       </c>
     </row>
     <row r="132">
@@ -5770,28 +5770,28 @@
         <v>176</v>
       </c>
       <c r="D132" t="n">
-        <v>325.5</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>5749.7</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>2116.3</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.699</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>10.128</v>
+        <v>25.628</v>
       </c>
       <c r="K132" t="n">
-        <v>4.285</v>
+        <v>5.525</v>
       </c>
     </row>
     <row r="133">
@@ -5805,28 +5805,28 @@
         <v>177</v>
       </c>
       <c r="D133" t="n">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>131.2</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>24243</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>69570.7</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.755</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>35.981</v>
+        <v>31.695</v>
       </c>
       <c r="K133" t="n">
-        <v>124.81</v>
+        <v>160.591</v>
       </c>
     </row>
     <row r="134">
@@ -5840,28 +5840,28 @@
         <v>178</v>
       </c>
       <c r="D134" t="n">
-        <v>1908.4</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1920.2</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>22812.6</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>243054.7</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>1.061</v>
+        <v>4.19</v>
       </c>
       <c r="I134" t="n">
-        <v>1.289</v>
+        <v>1.342</v>
       </c>
       <c r="J134" t="n">
-        <v>12.91</v>
+        <v>12.837</v>
       </c>
       <c r="K134" t="n">
-        <v>150.161</v>
+        <v>158.576</v>
       </c>
     </row>
     <row r="135">
@@ -5875,28 +5875,28 @@
         <v>180</v>
       </c>
       <c r="D135" t="n">
-        <v>10491.2</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>101963.6</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>136823.8</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>8.841</v>
+        <v>12.153</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>84.622</v>
+        <v>87.522</v>
       </c>
       <c r="K135" t="n">
-        <v>126.439</v>
+        <v>122.377</v>
       </c>
     </row>
     <row r="136">
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>61.7</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5945,28 +5945,28 @@
         <v>80</v>
       </c>
       <c r="D137" t="n">
-        <v>181.5</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>5076.8</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>3548.9</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1.445</v>
+        <v>7.706</v>
       </c>
       <c r="K137" t="n">
-        <v>0.99</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="138">
@@ -5980,28 +5980,28 @@
         <v>181</v>
       </c>
       <c r="D138" t="n">
-        <v>31944.4</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>111346</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>175453.2</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>21.743</v>
+        <v>26.24</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>97.492</v>
+        <v>121.294</v>
       </c>
       <c r="K138" t="n">
-        <v>171.12</v>
+        <v>144.443</v>
       </c>
     </row>
     <row r="139">
@@ -6021,10 +6021,10 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>18333.2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>197294.9</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6033,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>38.063</v>
+        <v>26.413</v>
       </c>
       <c r="K139" t="n">
-        <v>280.957</v>
+        <v>314.593</v>
       </c>
     </row>
     <row r="140">
@@ -6050,28 +6050,28 @@
         <v>183</v>
       </c>
       <c r="D140" t="n">
-        <v>94.1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>3466.9</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>76429.8</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>2.836</v>
+        <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>110.069</v>
+        <v>123.035</v>
       </c>
     </row>
     <row r="141">
@@ -6085,28 +6085,28 @@
         <v>185</v>
       </c>
       <c r="D141" t="n">
-        <v>4745.6</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>12557.1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>17089.7</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>152526.5</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>12.802</v>
+        <v>14.274</v>
       </c>
       <c r="I141" t="n">
-        <v>24.567</v>
+        <v>8.615</v>
       </c>
       <c r="J141" t="n">
-        <v>28.78</v>
+        <v>23.794</v>
       </c>
       <c r="K141" t="n">
-        <v>251.824</v>
+        <v>282.306</v>
       </c>
     </row>
     <row r="142">
@@ -6120,28 +6120,28 @@
         <v>186</v>
       </c>
       <c r="D142" t="n">
-        <v>8152.1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>146487.3</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>263177.9</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>1.614</v>
+        <v>1.416</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>37.75</v>
+        <v>49.961</v>
       </c>
       <c r="K142" t="n">
-        <v>140.355</v>
+        <v>133.238</v>
       </c>
     </row>
     <row r="143">
@@ -6155,28 +6155,28 @@
         <v>187</v>
       </c>
       <c r="D143" t="n">
-        <v>1922.9</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>3364.9</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>17590.9</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>59250.6</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>2.543</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>4.223</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>26.823</v>
+        <v>21.865</v>
       </c>
       <c r="K143" t="n">
-        <v>99.639</v>
+        <v>117.196</v>
       </c>
     </row>
     <row r="144">
@@ -6190,28 +6190,28 @@
         <v>188</v>
       </c>
       <c r="D144" t="n">
-        <v>24795.8</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1807.9</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>132554.7</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>180546</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>6.7</v>
+        <v>7.959</v>
       </c>
       <c r="I144" t="n">
-        <v>0.926</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>44.36</v>
+        <v>52.375</v>
       </c>
       <c r="K144" t="n">
-        <v>97.867</v>
+        <v>99.632</v>
       </c>
     </row>
     <row r="145">
@@ -6225,28 +6225,28 @@
         <v>189</v>
       </c>
       <c r="D145" t="n">
-        <v>240.2</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>39.7</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1053.7</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>33536.6</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>5.519</v>
       </c>
       <c r="K145" t="n">
-        <v>55.106</v>
+        <v>43.226</v>
       </c>
     </row>
     <row r="146">
@@ -6260,28 +6260,28 @@
         <v>190</v>
       </c>
       <c r="D146" t="n">
-        <v>75.7</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>16.4</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>50140.8</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>333019.6</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>13.871</v>
+        <v>15.017</v>
       </c>
       <c r="K146" t="n">
-        <v>237.249</v>
+        <v>242.486</v>
       </c>
     </row>
     <row r="147">
@@ -6295,28 +6295,28 @@
         <v>192</v>
       </c>
       <c r="D147" t="n">
-        <v>53519.7</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>13979.4</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>71765.5</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>216367.3</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>72.924</v>
+        <v>67.091</v>
       </c>
       <c r="I147" t="n">
-        <v>23.801</v>
+        <v>16.748</v>
       </c>
       <c r="J147" t="n">
-        <v>112.103</v>
+        <v>153.694</v>
       </c>
       <c r="K147" t="n">
-        <v>302.208</v>
+        <v>268.682</v>
       </c>
     </row>
     <row r="148">
@@ -6330,28 +6330,28 @@
         <v>193</v>
       </c>
       <c r="D148" t="n">
-        <v>2302.2</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1506.3</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>4926.7</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>79020.6</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>2.632</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>2.505</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>6.287</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>112.566</v>
+        <v>112.194</v>
       </c>
     </row>
     <row r="149">
@@ -6371,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1953.2</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>232586.7</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6383,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.039</v>
+        <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>247.73</v>
+        <v>255.914</v>
       </c>
     </row>
     <row r="150">
@@ -6400,28 +6400,28 @@
         <v>195</v>
       </c>
       <c r="D150" t="n">
-        <v>104.7</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>296.8</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>6568.9</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>213672.1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0.569</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>13.585</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>307.279</v>
+        <v>303.87</v>
       </c>
     </row>
     <row r="151">
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>954.7</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>37144.9</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6453,10 +6453,10 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.937</v>
+        <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>56.317</v>
+        <v>56.071</v>
       </c>
     </row>
     <row r="152">
@@ -6476,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>10426.5</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>237755.9</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6488,10 +6488,10 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>17.696</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>437.857</v>
+        <v>481.131</v>
       </c>
     </row>
     <row r="153">
@@ -6511,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>19989.3</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>62168</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6523,10 +6523,10 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>48.52</v>
+        <v>28.097</v>
       </c>
       <c r="K153" t="n">
-        <v>129.562</v>
+        <v>120.465</v>
       </c>
     </row>
     <row r="154">
@@ -6546,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>13463</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>168484.2</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6558,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>24.367</v>
+        <v>6.88</v>
       </c>
       <c r="K154" t="n">
-        <v>347.981</v>
+        <v>339.316</v>
       </c>
     </row>
     <row r="155">
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1067</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.073</v>
+        <v>1.551</v>
       </c>
     </row>
     <row r="156">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>5387.5</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>1.69</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="157">
@@ -6651,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>289.8</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>236940</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6663,10 +6663,10 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>303.103</v>
+        <v>313.628</v>
       </c>
     </row>
     <row r="158">
@@ -6686,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>4214.7</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>310465.2</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6698,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>5.194</v>
+        <v>4.238</v>
       </c>
       <c r="K158" t="n">
-        <v>284.339</v>
+        <v>270.734</v>
       </c>
     </row>
     <row r="159">
@@ -6715,28 +6715,28 @@
         <v>204</v>
       </c>
       <c r="D159" t="n">
-        <v>5048.1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1720</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>18949.8</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>304302</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1.925</v>
+        <v>0.481</v>
       </c>
       <c r="I159" t="n">
-        <v>0.736</v>
+        <v>0.38</v>
       </c>
       <c r="J159" t="n">
-        <v>11.422</v>
+        <v>2.459</v>
       </c>
       <c r="K159" t="n">
-        <v>255.484</v>
+        <v>253.987</v>
       </c>
     </row>
     <row r="160">
@@ -6750,28 +6750,28 @@
         <v>205</v>
       </c>
       <c r="D160" t="n">
-        <v>195.3</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>66.8</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>13735.7</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>189607</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>17.954</v>
+        <v>9.442</v>
       </c>
       <c r="K160" t="n">
-        <v>195.702</v>
+        <v>227.015</v>
       </c>
     </row>
     <row r="161">
@@ -6785,28 +6785,28 @@
         <v>206</v>
       </c>
       <c r="D161" t="n">
-        <v>4263.4</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>326.2</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>31027.9</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>561848</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.196</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>8.548</v>
+        <v>3.965</v>
       </c>
       <c r="K161" t="n">
-        <v>276.309</v>
+        <v>277.69</v>
       </c>
     </row>
     <row r="162">
@@ -6826,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>1953.8</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>139405</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6838,10 +6838,10 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>3.086</v>
+        <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>170.075</v>
+        <v>177.121</v>
       </c>
     </row>
     <row r="163">
@@ -6861,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>2347.8</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>119857.5</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6873,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>3.188</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>216.492</v>
+        <v>217.016</v>
       </c>
     </row>
     <row r="164">
@@ -6896,10 +6896,10 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1096.9</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>41376.9</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6908,10 +6908,10 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.328</v>
+        <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>67.893</v>
+        <v>70.947</v>
       </c>
     </row>
     <row r="165">
@@ -6925,28 +6925,28 @@
         <v>211</v>
       </c>
       <c r="D165" t="n">
-        <v>13131.3</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>55609.8</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>26216.2</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>20.583</v>
+        <v>12.616</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>57.777</v>
+        <v>69.991</v>
       </c>
       <c r="K165" t="n">
-        <v>32.43</v>
+        <v>30.688</v>
       </c>
     </row>
     <row r="166">
@@ -6966,10 +6966,10 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1568.8</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0.004</v>
+        <v>0.167</v>
       </c>
       <c r="K166" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -6995,28 +6995,28 @@
         <v>212</v>
       </c>
       <c r="D167" t="n">
-        <v>154.7</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>69012.6</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>128609.7</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>124.759</v>
+        <v>141.256</v>
       </c>
       <c r="K167" t="n">
-        <v>286.149</v>
+        <v>286.961</v>
       </c>
     </row>
     <row r="168">
@@ -7036,10 +7036,10 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>13332.2</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>148312.9</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7048,10 +7048,10 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>16.07</v>
+        <v>14.336</v>
       </c>
       <c r="K168" t="n">
-        <v>159.712</v>
+        <v>154.953</v>
       </c>
     </row>
     <row r="169">
@@ -7065,28 +7065,28 @@
         <v>210</v>
       </c>
       <c r="D169" t="n">
-        <v>1269.5</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>111379.1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>116600.5</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>13.912</v>
+        <v>17.635</v>
       </c>
       <c r="K169" t="n">
-        <v>121.056</v>
+        <v>112.659</v>
       </c>
     </row>
     <row r="170">
@@ -7106,10 +7106,10 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>6049.5</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>29815.7</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7118,10 +7118,10 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>8.159</v>
+        <v>2.284</v>
       </c>
       <c r="K170" t="n">
-        <v>33.073</v>
+        <v>42.464</v>
       </c>
     </row>
     <row r="171">
@@ -7135,28 +7135,28 @@
         <v>216</v>
       </c>
       <c r="D171" t="n">
-        <v>1339.7</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>363.4</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>739.7</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>352160.6</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1.755</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0.435</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>1.192</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>366.485</v>
+        <v>374.545</v>
       </c>
     </row>
     <row r="172">
@@ -7170,28 +7170,28 @@
         <v>217</v>
       </c>
       <c r="D172" t="n">
-        <v>43288.9</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>972.7</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>163063.1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>176710.3</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>13.691</v>
+        <v>8.646</v>
       </c>
       <c r="I172" t="n">
-        <v>2.319</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>186.095</v>
+        <v>223.657</v>
       </c>
       <c r="K172" t="n">
-        <v>253.174</v>
+        <v>238.097</v>
       </c>
     </row>
     <row r="173">
@@ -7205,28 +7205,28 @@
         <v>218</v>
       </c>
       <c r="D173" t="n">
-        <v>13164.7</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>9487.1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>27187.7</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>367776.1</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>16.785</v>
+        <v>9.963</v>
       </c>
       <c r="I173" t="n">
-        <v>8.908</v>
+        <v>4.523</v>
       </c>
       <c r="J173" t="n">
-        <v>28.4</v>
+        <v>28.545</v>
       </c>
       <c r="K173" t="n">
-        <v>395.259</v>
+        <v>403.566</v>
       </c>
     </row>
     <row r="174">
@@ -7240,28 +7240,28 @@
         <v>219</v>
       </c>
       <c r="D174" t="n">
-        <v>8578.6</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>674.2</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>213990.8</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>277644</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>2.265</v>
+        <v>2.26</v>
       </c>
       <c r="I174" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>71.442</v>
+        <v>92.399</v>
       </c>
       <c r="K174" t="n">
-        <v>103.12</v>
+        <v>88.298</v>
       </c>
     </row>
     <row r="175">
@@ -7275,28 +7275,28 @@
         <v>215</v>
       </c>
       <c r="D175" t="n">
-        <v>16379.5</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>2758.7</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>21762.7</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>36194.5</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>13.031</v>
+        <v>14.22</v>
       </c>
       <c r="I175" t="n">
-        <v>3.265</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>21.841</v>
+        <v>47.959</v>
       </c>
       <c r="K175" t="n">
-        <v>36.149</v>
+        <v>20.194</v>
       </c>
     </row>
     <row r="176">
@@ -7310,28 +7310,28 @@
         <v>220</v>
       </c>
       <c r="D176" t="n">
-        <v>397.5</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>111192.3</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>40224.7</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>0.483</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>132.779</v>
+        <v>160.09</v>
       </c>
       <c r="K176" t="n">
-        <v>59.673</v>
+        <v>36.785</v>
       </c>
     </row>
     <row r="177">
@@ -7345,28 +7345,28 @@
         <v>221</v>
       </c>
       <c r="D177" t="n">
-        <v>29234.9</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>8326.7</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>123848.1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>300674.1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>27.87</v>
+        <v>12.183</v>
       </c>
       <c r="I177" t="n">
-        <v>6.433</v>
+        <v>1.636</v>
       </c>
       <c r="J177" t="n">
-        <v>124.292</v>
+        <v>152.73</v>
       </c>
       <c r="K177" t="n">
-        <v>277.62</v>
+        <v>266.498</v>
       </c>
     </row>
     <row r="178">
@@ -7380,28 +7380,28 @@
         <v>223</v>
       </c>
       <c r="D178" t="n">
-        <v>95.2</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>167.8</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>4827.9</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>166199.4</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>5.56</v>
+        <v>0.489</v>
       </c>
       <c r="K178" t="n">
-        <v>279.121</v>
+        <v>291.557</v>
       </c>
     </row>
     <row r="179">
@@ -7421,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>29188.6</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7433,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>58.316</v>
+        <v>53.706</v>
       </c>
     </row>
     <row r="180">
@@ -7450,28 +7450,28 @@
         <v>225</v>
       </c>
       <c r="D180" t="n">
-        <v>62.9</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>2885.8</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>177760.8</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>7.003</v>
+        <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>284.766</v>
+        <v>298.54</v>
       </c>
     </row>
     <row r="181">
@@ -7485,28 +7485,28 @@
         <v>226</v>
       </c>
       <c r="D181" t="n">
-        <v>5411.9</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>3306.5</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>97273.8</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>26.109</v>
+        <v>20.441</v>
       </c>
       <c r="I181" t="n">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>14.029</v>
+        <v>18.494</v>
       </c>
       <c r="K181" t="n">
-        <v>175.963</v>
+        <v>178.996</v>
       </c>
     </row>
     <row r="182">
@@ -7526,10 +7526,10 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>29.7</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>10493.2</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7538,10 +7538,10 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.072</v>
+        <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>24.871</v>
+        <v>19.203</v>
       </c>
     </row>
     <row r="183">
@@ -7555,28 +7555,28 @@
         <v>228</v>
       </c>
       <c r="D183" t="n">
-        <v>13606.2</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>1266</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>22029.1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>96816.5</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>62.682</v>
+        <v>35.14</v>
       </c>
       <c r="I183" t="n">
-        <v>5.738</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>87.593</v>
+        <v>56.974</v>
       </c>
       <c r="K183" t="n">
-        <v>223.584</v>
+        <v>250.482</v>
       </c>
     </row>
     <row r="184">
@@ -7590,28 +7590,28 @@
         <v>229</v>
       </c>
       <c r="D184" t="n">
-        <v>1197.9</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>82.6</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>5737</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>54946.5</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0.343</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>17.097</v>
+        <v>27.392</v>
       </c>
       <c r="K184" t="n">
-        <v>68.117</v>
+        <v>79.984</v>
       </c>
     </row>
     <row r="185">
@@ -7625,28 +7625,28 @@
         <v>230</v>
       </c>
       <c r="D185" t="n">
-        <v>5113.2</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>194.9</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>7718.1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>39683.7</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>15.91</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0.334</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>27</v>
+        <v>38.726</v>
       </c>
       <c r="K185" t="n">
-        <v>102.754</v>
+        <v>122.172</v>
       </c>
     </row>
     <row r="186">
@@ -7666,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>685.5</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>34144.1</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7678,10 +7678,10 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>1.007</v>
+        <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>33.663</v>
+        <v>52.76</v>
       </c>
     </row>
     <row r="187">
@@ -7695,28 +7695,28 @@
         <v>222</v>
       </c>
       <c r="D187" t="n">
-        <v>27.9</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>411.5</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>17911.5</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>1.028</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>42.54</v>
+        <v>55.202</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_tanzania.xlsx
+++ b/public/data/soil/soil_table_tanzania.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2145.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>27311.9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8970.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11029.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>73413</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7068.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2617.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>804.7</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15650.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2826.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>30877.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>45350</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3991.4</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50118.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8142.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>5318.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>988.9</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9550.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>932.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>57068.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2274</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>115900.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114013.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>932.4</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>12640.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>15161</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>83652.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>152619.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8371.8</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>98019.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,16 +1885,16 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>14570</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>79667.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>54286.8</v>
       </c>
       <c r="H21" t="n">
         <v>29.607</v>
@@ -1920,16 +1920,16 @@
         <v>53</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2894.2</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>36169.4</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7419.5</v>
       </c>
       <c r="H22" t="n">
         <v>12.05</v>
@@ -1955,16 +1955,16 @@
         <v>51</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>66582.1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>119949.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>46137.9</v>
       </c>
       <c r="H23" t="n">
         <v>170.449</v>
@@ -1990,16 +1990,16 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>355.3</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>32896.8</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2137.5</v>
       </c>
       <c r="H24" t="n">
         <v>5.755</v>
@@ -2025,16 +2025,16 @@
         <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>51867.3</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>24436</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>79785.9</v>
       </c>
       <c r="H25" t="n">
         <v>85.656</v>
@@ -2060,16 +2060,16 @@
         <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6588.5</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3568.6</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>77731.5</v>
       </c>
       <c r="H26" t="n">
         <v>7.612</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>24908.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>131119.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15048.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>60</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>12839</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>25755.7</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>108933</v>
       </c>
       <c r="H29" t="n">
         <v>33.8</v>
@@ -2200,16 +2200,16 @@
         <v>61</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2133.7</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>16630.9</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4503.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2235,16 +2235,16 @@
         <v>62</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34274.8</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>104953.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>121115.1</v>
       </c>
       <c r="H31" t="n">
         <v>71.918</v>
@@ -2270,13 +2270,13 @@
         <v>64</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>11720.4</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>39098.1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>65</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>70091.8</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>40074.6</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4598.8</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>67</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>4538.4</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>118072.4</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3341.6</v>
       </c>
       <c r="H35" t="n">
         <v>21.952</v>
@@ -2410,16 +2410,16 @@
         <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>20763.2</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>63404.2</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1439.6</v>
       </c>
       <c r="H36" t="n">
         <v>48.443</v>
@@ -2445,13 +2445,13 @@
         <v>54</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>35256.2</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>8107.9</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2480,16 +2480,16 @@
         <v>69</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>43444.4</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>71784.6</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>14119.4</v>
       </c>
       <c r="H38" t="n">
         <v>80.886</v>
@@ -2515,13 +2515,13 @@
         <v>70</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>54208.8</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>88153.1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>92394.9</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2585,13 +2585,13 @@
         <v>73</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>3427.5</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>4295.8</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2620,16 +2620,16 @@
         <v>74</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>5990.7</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>9065.6</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>843.3</v>
       </c>
       <c r="H42" t="n">
         <v>9.505</v>
@@ -2661,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>7836.5</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>952.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>8028.2</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4976</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>792.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>81</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>354.1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>41414.6</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>94869.7</v>
       </c>
       <c r="H47" t="n">
         <v>1.149</v>
@@ -2830,16 +2830,16 @@
         <v>82</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>71341.5</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>15069.6</v>
       </c>
       <c r="H48" t="n">
         <v>7.709</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>5856.8</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>21709.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         <v>85</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>5051.1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>87738.3</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2935,13 +2935,13 @@
         <v>86</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>876.8</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>33777.2</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2970,16 +2970,16 @@
         <v>87</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>6669.8</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>148633.5</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3849.9</v>
       </c>
       <c r="H52" t="n">
         <v>17.626</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>52359.2</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>89</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>8628.5</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>55397.4</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>34517</v>
       </c>
       <c r="H54" t="n">
         <v>20.24</v>
@@ -3075,16 +3075,16 @@
         <v>90</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>2925.9</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>30252.2</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>5251.7</v>
       </c>
       <c r="H55" t="n">
         <v>41.436</v>
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>6275.6</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>10198.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3145,16 +3145,16 @@
         <v>80</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>394.2</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>30372.2</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>13044.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3180,16 +3180,16 @@
         <v>92</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>401.9</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>76215.7</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>26676.5</v>
       </c>
       <c r="H58" t="n">
         <v>1.656</v>
@@ -3221,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>966.9</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>55200</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3250,16 +3250,16 @@
         <v>95</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>2686.5</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>12383.9</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>92241.9</v>
       </c>
       <c r="H60" t="n">
         <v>14.303</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>4257.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>4090.9</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>47145.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3355,16 +3355,16 @@
         <v>98</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>13294.6</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>31819.2</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>32744.5</v>
       </c>
       <c r="H63" t="n">
         <v>18.434</v>
@@ -3390,16 +3390,16 @@
         <v>99</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>2950.6</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>5315.1</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>80500.6</v>
       </c>
       <c r="H64" t="n">
         <v>20.69</v>
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2806.9</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>37127.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>102</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1497.8</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>3776.9</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1423.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3495,13 +3495,13 @@
         <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2620.9</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>2880.3</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -3530,16 +3530,16 @@
         <v>105</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1206.4</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3807.8</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>392.7</v>
       </c>
       <c r="H68" t="n">
         <v>11.665</v>
@@ -3571,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2236</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>392.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3606,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2752.1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>44564.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>24923.6</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>58075.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>2712.1</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>15539.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1646.2</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>32282.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>80470.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3781,10 +3781,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>4105.9</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>51531.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3810,16 +3810,16 @@
         <v>115</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>579.1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>20485.4</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>103948.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3851,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2219.2</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>18955.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>87973.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>110129.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3358.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>119</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>934.4</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>7552.6</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>75025.5</v>
       </c>
       <c r="H81" t="n">
         <v>12.019</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>100154.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>41644.2</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>60451.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4096,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>41429.2</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>30935.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>26164.6</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>47135.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4166,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>9515.4</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>20659</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4201,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>692.4</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1278.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>79494.1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>13971.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4271,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>55995.3</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>48573.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4300,16 +4300,16 @@
         <v>128</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>8296</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>65633.8</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>11494.3</v>
       </c>
       <c r="H90" t="n">
         <v>43.642</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>23631.5</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>102966.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4370,13 +4370,13 @@
         <v>131</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>23494.4</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>10861.2</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>114325.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4440,16 +4440,16 @@
         <v>133</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>7566</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>94774.2</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>97705.2</v>
       </c>
       <c r="H94" t="n">
         <v>10.49</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>10784.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4510,13 +4510,13 @@
         <v>135</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>24544.1</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>102005.5</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2977</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4586,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1262.5</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2771</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4656,10 +4656,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>549.5</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>41749</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4685,16 +4685,16 @@
         <v>142</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>12496.4</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>27392.1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>33777.1</v>
       </c>
       <c r="H101" t="n">
         <v>3.013</v>
@@ -4726,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>12726</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>78699.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4761,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>5391.2</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>41181.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4796,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1620.9</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>8748.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4831,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>3704.8</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>65781.8</v>
       </c>
       <c r="H105" t="n">
         <v>6.057</v>
@@ -4866,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>20473.4</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>26002.4</v>
       </c>
       <c r="H106" t="n">
         <v>3.848</v>
@@ -4901,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>2209.2</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>105447.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>31737.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4971,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>26654</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>34619.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2973.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>57343.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5076,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>29650.5</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>40180.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5105,16 +5105,16 @@
         <v>155</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1118.8</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>43730.2</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>11558.8</v>
       </c>
       <c r="H113" t="n">
         <v>8.453</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>7384.9</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>665.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>153044.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5210,16 +5210,16 @@
         <v>54</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1925.3</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>72431</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>47844.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5251,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>12156.8</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>102821</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>2624.7</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>85735</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>3130.2</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>162</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1861.7</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>71344.1</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>34734</v>
       </c>
       <c r="H120" t="n">
         <v>37.025</v>
@@ -5391,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>35425.4</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>484.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5420,16 +5420,16 @@
         <v>165</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>11428.1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>15511</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>10538.6</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>34201.2</v>
       </c>
       <c r="H122" t="n">
         <v>18.803</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>27634.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5490,16 +5490,16 @@
         <v>167</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>7470.9</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>8847.8</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>20207.5</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>18385.5</v>
       </c>
       <c r="H124" t="n">
         <v>28.486</v>
@@ -5525,16 +5525,16 @@
         <v>168</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>2923.2</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>2146.8</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>33219.4</v>
       </c>
       <c r="H125" t="n">
         <v>16.896</v>
@@ -5560,16 +5560,16 @@
         <v>169</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>10432.5</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>11548.1</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>28166.3</v>
       </c>
       <c r="H126" t="n">
         <v>25.125</v>
@@ -5595,16 +5595,16 @@
         <v>170</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1391.9</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>985.4</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>70163.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5636,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1778.3</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5671,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>299.2</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>18426.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>15198.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>28586</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5770,16 +5770,16 @@
         <v>176</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>408.4</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>4613.3</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1371.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>15119.9</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>40870.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5843,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>106.2</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>3520</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>66572.9</v>
       </c>
       <c r="H134" t="n">
         <v>4.19</v>
@@ -5875,16 +5875,16 @@
         <v>180</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>4605.4</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>39972.3</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>67114.5</v>
       </c>
       <c r="H135" t="n">
         <v>12.153</v>
@@ -5916,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>861.2</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>6460.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5945,16 +5945,16 @@
         <v>80</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>378.6</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>11829.4</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2433.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5980,16 +5980,16 @@
         <v>181</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>4041.6</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>33390.4</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>61773.7</v>
       </c>
       <c r="H138" t="n">
         <v>26.24</v>
@@ -6021,10 +6021,10 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>9944.9</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>121486.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6056,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>5225.8</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>47559.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6085,16 +6085,16 @@
         <v>185</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1678.2</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>2758.5</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>10119.2</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>70416.6</v>
       </c>
       <c r="H141" t="n">
         <v>14.274</v>
@@ -6126,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>14671.4</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>48560.4</v>
       </c>
       <c r="H142" t="n">
         <v>1.416</v>
@@ -6158,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1233.3</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>7931.5</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>41790.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6190,16 +6190,16 @@
         <v>188</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>2927.1</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>28311.9</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>49077.5</v>
       </c>
       <c r="H144" t="n">
         <v>7.959</v>
@@ -6231,10 +6231,10 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1951.4</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>22749.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6266,10 +6266,10 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>3798.3</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>54576.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6295,16 +6295,16 @@
         <v>192</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>32614.4</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>4348.3</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>55191.6</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>143735.9</v>
       </c>
       <c r="H147" t="n">
         <v>67.091</v>
@@ -6333,13 +6333,13 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1346.1</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>5123.2</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>49207.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>135411.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>83350.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>17538.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>175159.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6511,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>6212.8</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>63519.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6546,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>3854.4</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>142830</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>15779.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>212848.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6686,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>1071.3</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>138030.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6715,16 +6715,16 @@
         <v>204</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>419.7</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>3110.8</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>136459.2</v>
       </c>
       <c r="H159" t="n">
         <v>0.481</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>4079.9</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>117801.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6785,16 +6785,16 @@
         <v>206</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>419.7</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>1805.1</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>94069.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>99530.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>60041.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>22431.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6925,16 +6925,16 @@
         <v>211</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>3085</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>57861.5</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>22195.3</v>
       </c>
       <c r="H165" t="n">
         <v>12.616</v>
@@ -6966,10 +6966,10 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1532.6</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>10413.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7001,10 +7001,10 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>50145.5</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>77895.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7036,10 +7036,10 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>9037.9</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>76336.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7071,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>9713.8</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>73571.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7106,10 +7106,10 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>2157.3</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>20966.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>129776.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7170,16 +7170,16 @@
         <v>217</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1691.8</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>2013.1</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>43710.3</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>57626.2</v>
       </c>
       <c r="H172" t="n">
         <v>8.646</v>
@@ -7205,16 +7205,16 @@
         <v>218</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>2300.8</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1346.1</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>10296.3</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>116301.3</v>
       </c>
       <c r="H173" t="n">
         <v>9.963</v>
@@ -7240,16 +7240,16 @@
         <v>219</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1322</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>28959.4</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>25869</v>
       </c>
       <c r="H174" t="n">
         <v>2.26</v>
@@ -7275,16 +7275,16 @@
         <v>215</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>2293.5</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>9240.1</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>6083.9</v>
       </c>
       <c r="H175" t="n">
         <v>14.22</v>
@@ -7316,10 +7316,10 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>47409.6</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>13021.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7345,16 +7345,16 @@
         <v>221</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>5025.2</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>429.4</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>54033.6</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>80313.3</v>
       </c>
       <c r="H177" t="n">
         <v>12.183</v>
@@ -7386,10 +7386,10 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>104.5</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>73144</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>17756.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>77879.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7485,16 +7485,16 @@
         <v>226</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>3818.3</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>7664.4</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>100323.2</v>
       </c>
       <c r="H181" t="n">
         <v>20.441</v>
@@ -7526,10 +7526,10 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>2966.5</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>11820.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7555,16 +7555,16 @@
         <v>228</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>4714.9</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>6372.7</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>52689.2</v>
       </c>
       <c r="H183" t="n">
         <v>35.14</v>
@@ -7596,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>6380.2</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>37978.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7631,10 +7631,10 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>7084.8</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>24378.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>10258.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7701,10 +7701,10 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>134.8</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>4962.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
